--- a/Financial Analysis/LCID.xlsx
+++ b/Financial Analysis/LCID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DBAC7-60D6-4FEE-8A32-560DD6E86FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE36DDED-5113-4A32-BFE8-FA61FFA55245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AB2C153-F3A3-43B3-970A-67C6BEA1AC7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1AB2C153-F3A3-43B3-970A-67C6BEA1AC7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -362,6 +362,56 @@
         <a:xfrm>
           <a:off x="18531840" y="15240"/>
           <a:ext cx="0" cy="6126480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B774CCD-E4E6-2711-5B32-362A0186FBF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11833860" y="0"/>
+          <a:ext cx="0" cy="6019800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -686,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C917B7A2-890D-43C6-8568-2B7E364C5F2A}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -723,7 +773,7 @@
       </c>
       <c r="F3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45771</v>
+        <v>45782</v>
       </c>
       <c r="G3" s="4">
         <v>45783</v>
@@ -801,18 +851,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59EB153-B42C-4EA2-9808-5A7F3690FC48}">
   <dimension ref="B2:EF27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ21" sqref="AQ21"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="41" width="8.88671875" style="1"/>
+    <col min="3" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="8.88671875" style="1" customWidth="1"/>
+    <col min="19" max="41" width="8.88671875" style="1"/>
     <col min="42" max="42" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="16.77734375" style="1" customWidth="1"/>
     <col min="44" max="16384" width="8.88671875" style="1"/>
